--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16620" windowHeight="7245"/>
+    <workbookView windowWidth="20475" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -249,6 +249,42 @@
   </si>
   <si>
     <t>SN2601</t>
+  </si>
+  <si>
+    <t>苯乙烯</t>
+  </si>
+  <si>
+    <t>EB2512</t>
+  </si>
+  <si>
+    <t>铝合金</t>
+  </si>
+  <si>
+    <t>AD2601</t>
+  </si>
+  <si>
+    <t>低硫燃油</t>
+  </si>
+  <si>
+    <t>LU2601</t>
+  </si>
+  <si>
+    <t>尿素</t>
+  </si>
+  <si>
+    <t>UR2601</t>
+  </si>
+  <si>
+    <t>焦碳</t>
+  </si>
+  <si>
+    <t>J2601</t>
+  </si>
+  <si>
+    <t>欧线集运</t>
+  </si>
+  <si>
+    <t>EC2602</t>
   </si>
 </sst>
 </file>
@@ -1422,10 +1458,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1731,6 +1767,54 @@
         <v>73</v>
       </c>
     </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8670"/>
+    <workbookView windowWidth="22350" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -50,7 +50,7 @@
     <t>碳酸锂</t>
   </si>
   <si>
-    <t>LC2601</t>
+    <t>LC2605</t>
   </si>
   <si>
     <t>白糖</t>
@@ -188,7 +188,7 @@
     <t>沪铅</t>
   </si>
   <si>
-    <t>PB2512</t>
+    <t>PB2601</t>
   </si>
   <si>
     <t>沥青</t>
@@ -266,7 +266,7 @@
     <t>低硫燃油</t>
   </si>
   <si>
-    <t>LU2601</t>
+    <t>LU2602</t>
   </si>
   <si>
     <t>尿素</t>
@@ -285,6 +285,18 @@
   </si>
   <si>
     <t>EC2602</t>
+  </si>
+  <si>
+    <t>户锌</t>
+  </si>
+  <si>
+    <t>ZN2601</t>
+  </si>
+  <si>
+    <t>白银</t>
+  </si>
+  <si>
+    <t>AG2602</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1470,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1815,6 +1827,22 @@
         <v>85</v>
       </c>
     </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22350" windowHeight="10680"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>name</t>
   </si>
@@ -38,13 +38,13 @@
     <t>玻璃</t>
   </si>
   <si>
-    <t>FG2601</t>
+    <t>FG2605</t>
   </si>
   <si>
     <t>甲醇</t>
   </si>
   <si>
-    <t>MA2601</t>
+    <t>MA2605</t>
   </si>
   <si>
     <t>碳酸锂</t>
@@ -56,103 +56,103 @@
     <t>白糖</t>
   </si>
   <si>
-    <t>SR2601</t>
+    <t>SR2605</t>
   </si>
   <si>
     <t>生猪</t>
   </si>
   <si>
-    <t>LH2601</t>
+    <t>LH2603</t>
   </si>
   <si>
     <t>焦煤</t>
   </si>
   <si>
-    <t>JM2601</t>
+    <t>JM2605</t>
   </si>
   <si>
     <t>棉花</t>
   </si>
   <si>
-    <t>CF2601</t>
+    <t>CF2605</t>
   </si>
   <si>
     <t>纯碱</t>
   </si>
   <si>
-    <t>SA2601</t>
+    <t>SA2605</t>
   </si>
   <si>
     <t>苹果</t>
   </si>
   <si>
-    <t>AP2601</t>
+    <t>AP2605</t>
   </si>
   <si>
     <t>鸡蛋</t>
   </si>
   <si>
-    <t>JD2601</t>
+    <t>JD2602</t>
   </si>
   <si>
     <t>红枣</t>
   </si>
   <si>
-    <t>CJ2601</t>
+    <t>CJ2605</t>
   </si>
   <si>
     <t>烧碱</t>
   </si>
   <si>
-    <t>SH2601</t>
+    <t>SH2603</t>
   </si>
   <si>
     <t>玉米</t>
   </si>
   <si>
-    <t>C2601</t>
+    <t>C2603</t>
   </si>
   <si>
     <t>铜</t>
   </si>
   <si>
-    <t>CU2512</t>
-  </si>
-  <si>
-    <t>天然橡胶</t>
-  </si>
-  <si>
-    <t>RU2601</t>
+    <t>CU2602</t>
+  </si>
+  <si>
+    <t>橡胶</t>
+  </si>
+  <si>
+    <t>RU2605</t>
   </si>
   <si>
     <t>螺纹钢</t>
   </si>
   <si>
-    <t>RB2601</t>
+    <t>RB2605</t>
   </si>
   <si>
     <t>工业硅</t>
   </si>
   <si>
-    <t>SI2601</t>
+    <t>SI2605</t>
   </si>
   <si>
     <t>铝</t>
   </si>
   <si>
-    <t>AL2601</t>
+    <t>AL2602</t>
   </si>
   <si>
     <t>棉纱</t>
   </si>
   <si>
-    <t>CY2601</t>
+    <t>CY2603</t>
   </si>
   <si>
     <t>纸浆</t>
   </si>
   <si>
-    <t>SP2601</t>
+    <t>SP2605</t>
   </si>
   <si>
     <t>氧化铝</t>
@@ -164,13 +164,13 @@
     <t>多晶硅</t>
   </si>
   <si>
-    <t>PS2601</t>
+    <t>PS2605</t>
   </si>
   <si>
     <t>粳米</t>
   </si>
   <si>
-    <t>RR2601</t>
+    <t>RR2602</t>
   </si>
   <si>
     <t>纯苯</t>
@@ -182,31 +182,31 @@
     <t>合成橡胶</t>
   </si>
   <si>
-    <t>BR2601</t>
+    <t>BR2602</t>
   </si>
   <si>
     <t>沪铅</t>
   </si>
   <si>
-    <t>PB2601</t>
+    <t>PB2602</t>
   </si>
   <si>
     <t>沥青</t>
   </si>
   <si>
-    <t>BU2601</t>
+    <t>BU2602</t>
   </si>
   <si>
     <t>燃油</t>
   </si>
   <si>
-    <t>FU2601</t>
+    <t>FU2603</t>
   </si>
   <si>
     <t>不锈钢</t>
   </si>
   <si>
-    <t>SS2601</t>
+    <t>SS2602</t>
   </si>
   <si>
     <t>短纤</t>
@@ -224,25 +224,25 @@
     <t>原木</t>
   </si>
   <si>
-    <t>LG2601</t>
+    <t>LG2603</t>
   </si>
   <si>
     <t>乙二醇</t>
   </si>
   <si>
-    <t>EG2601</t>
+    <t>EG2605</t>
   </si>
   <si>
     <t>铁矿石</t>
   </si>
   <si>
-    <t>I2601</t>
+    <t>I2605</t>
   </si>
   <si>
     <t>塑料</t>
   </si>
   <si>
-    <t>L2601</t>
+    <t>L2605</t>
   </si>
   <si>
     <t>锡</t>
@@ -254,13 +254,13 @@
     <t>苯乙烯</t>
   </si>
   <si>
-    <t>EB2512</t>
+    <t>EB2602</t>
   </si>
   <si>
     <t>铝合金</t>
   </si>
   <si>
-    <t>AD2601</t>
+    <t>AD2602</t>
   </si>
   <si>
     <t>低硫燃油</t>
@@ -272,13 +272,13 @@
     <t>尿素</t>
   </si>
   <si>
-    <t>UR2601</t>
+    <t>UR2605</t>
   </si>
   <si>
     <t>焦碳</t>
   </si>
   <si>
-    <t>J2601</t>
+    <t>J2605</t>
   </si>
   <si>
     <t>欧线集运</t>
@@ -290,13 +290,205 @@
     <t>户锌</t>
   </si>
   <si>
-    <t>ZN2601</t>
+    <t>ZN2602</t>
   </si>
   <si>
     <t>白银</t>
   </si>
   <si>
     <t>AG2602</t>
+  </si>
+  <si>
+    <t>热卷</t>
+  </si>
+  <si>
+    <t>HC2605</t>
+  </si>
+  <si>
+    <t>沪镍</t>
+  </si>
+  <si>
+    <t>NI2601</t>
+  </si>
+  <si>
+    <t>20号胶</t>
+  </si>
+  <si>
+    <t>NR2602</t>
+  </si>
+  <si>
+    <t>双胶纸</t>
+  </si>
+  <si>
+    <t>OP2602</t>
+  </si>
+  <si>
+    <t>原油</t>
+  </si>
+  <si>
+    <t>SC2602</t>
+  </si>
+  <si>
+    <t>线材</t>
+  </si>
+  <si>
+    <t>WR2601</t>
+  </si>
+  <si>
+    <t>豆一</t>
+  </si>
+  <si>
+    <t>A2605</t>
+  </si>
+  <si>
+    <t>豆二</t>
+  </si>
+  <si>
+    <t>B2601</t>
+  </si>
+  <si>
+    <t>胶合板</t>
+  </si>
+  <si>
+    <t>BB2603</t>
+  </si>
+  <si>
+    <t>纤维板</t>
+  </si>
+  <si>
+    <t>FB2603</t>
+  </si>
+  <si>
+    <t>豆粕</t>
+  </si>
+  <si>
+    <t>M2605</t>
+  </si>
+  <si>
+    <t>棕榈油</t>
+  </si>
+  <si>
+    <t>P2605</t>
+  </si>
+  <si>
+    <t>聚丙烯</t>
+  </si>
+  <si>
+    <t>PP2605</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>V2601</t>
+  </si>
+  <si>
+    <t>豆油</t>
+  </si>
+  <si>
+    <t>Y2601</t>
+  </si>
+  <si>
+    <t>梗稻</t>
+  </si>
+  <si>
+    <t>JR2601</t>
+  </si>
+  <si>
+    <t>晚上稻</t>
+  </si>
+  <si>
+    <t>LR2601</t>
+  </si>
+  <si>
+    <t>采油</t>
+  </si>
+  <si>
+    <t>OI2601</t>
+  </si>
+  <si>
+    <t>花生</t>
+  </si>
+  <si>
+    <t>PK2603</t>
+  </si>
+  <si>
+    <t>丙稀</t>
+  </si>
+  <si>
+    <t>PL2603</t>
+  </si>
+  <si>
+    <t>普麦</t>
+  </si>
+  <si>
+    <t>PM2601</t>
+  </si>
+  <si>
+    <t>瓶片</t>
+  </si>
+  <si>
+    <t>PR2603</t>
+  </si>
+  <si>
+    <t>对二甲苯</t>
+  </si>
+  <si>
+    <t>PX2603</t>
+  </si>
+  <si>
+    <t>早上稻</t>
+  </si>
+  <si>
+    <t>RI2601</t>
+  </si>
+  <si>
+    <t>菜粕</t>
+  </si>
+  <si>
+    <t>RM2605</t>
+  </si>
+  <si>
+    <t>菜籽</t>
+  </si>
+  <si>
+    <t>RS2607</t>
+  </si>
+  <si>
+    <t>硅铁</t>
+  </si>
+  <si>
+    <t>SF2603</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t>TA2601</t>
+  </si>
+  <si>
+    <t>强麦</t>
+  </si>
+  <si>
+    <t>WH2601</t>
+  </si>
+  <si>
+    <t>钯金</t>
+  </si>
+  <si>
+    <t>PD2606</t>
+  </si>
+  <si>
+    <t>铂金</t>
+  </si>
+  <si>
+    <t>PT2606</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>AU2602</t>
   </si>
 </sst>
 </file>
@@ -1470,10 +1662,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1843,6 +2035,262 @@
         <v>89</v>
       </c>
     </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="22800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <t>氧化铝</t>
   </si>
   <si>
-    <t>AO2601</t>
+    <t>AO2605</t>
   </si>
   <si>
     <t>多晶硅</t>
@@ -266,7 +266,7 @@
     <t>低硫燃油</t>
   </si>
   <si>
-    <t>LU2602</t>
+    <t>LU2603</t>
   </si>
   <si>
     <t>尿素</t>
@@ -1664,8 +1664,8 @@
   <sheetPr/>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -218,7 +218,7 @@
     <t>玉米淀粉</t>
   </si>
   <si>
-    <t>CS2601</t>
+    <t>CS2603</t>
   </si>
   <si>
     <t>原木</t>
@@ -380,7 +380,7 @@
     <t>PVC</t>
   </si>
   <si>
-    <t>V2601</t>
+    <t>V2605</t>
   </si>
   <si>
     <t>豆油</t>
@@ -404,7 +404,7 @@
     <t>采油</t>
   </si>
   <si>
-    <t>OI2601</t>
+    <t>OI2605</t>
   </si>
   <si>
     <t>花生</t>
@@ -464,7 +464,7 @@
     <t>PAT</t>
   </si>
   <si>
-    <t>TA2601</t>
+    <t>TA2605</t>
   </si>
   <si>
     <t>强麦</t>
@@ -1664,8 +1664,8 @@
   <sheetPr/>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="11655"/>
+    <workbookView windowWidth="12960" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
     <t>沪镍</t>
   </si>
   <si>
-    <t>NI2601</t>
+    <t>NI2602</t>
   </si>
   <si>
     <t>20号胶</t>
@@ -1664,8 +1664,8 @@
   <sheetPr/>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12960" windowHeight="4560"/>
+    <workbookView windowWidth="17955" windowHeight="8475"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -248,7 +248,7 @@
     <t>锡</t>
   </si>
   <si>
-    <t>SN2601</t>
+    <t>SN2602</t>
   </si>
   <si>
     <t>苯乙烯</t>
@@ -260,7 +260,7 @@
     <t>铝合金</t>
   </si>
   <si>
-    <t>AD2602</t>
+    <t>AD2603</t>
   </si>
   <si>
     <t>低硫燃油</t>
@@ -296,7 +296,7 @@
     <t>白银</t>
   </si>
   <si>
-    <t>AG2602</t>
+    <t>AG2604</t>
   </si>
   <si>
     <t>热卷</t>
@@ -344,7 +344,7 @@
     <t>豆二</t>
   </si>
   <si>
-    <t>B2601</t>
+    <t>B2605</t>
   </si>
   <si>
     <t>胶合板</t>
@@ -1664,8 +1664,8 @@
   <sheetPr/>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17955" windowHeight="8475"/>
+    <workbookView windowWidth="21105" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>name</t>
   </si>
@@ -92,7 +92,7 @@
     <t>鸡蛋</t>
   </si>
   <si>
-    <t>JD2602</t>
+    <t>JD2603</t>
   </si>
   <si>
     <t>红枣</t>
@@ -140,7 +140,7 @@
     <t>铝</t>
   </si>
   <si>
-    <t>AL2602</t>
+    <t>AL2603</t>
   </si>
   <si>
     <t>棉纱</t>
@@ -194,7 +194,7 @@
     <t>沥青</t>
   </si>
   <si>
-    <t>BU2602</t>
+    <t>BU2603</t>
   </si>
   <si>
     <t>燃油</t>
@@ -206,7 +206,7 @@
     <t>不锈钢</t>
   </si>
   <si>
-    <t>SS2602</t>
+    <t>SS2603</t>
   </si>
   <si>
     <t>短纤</t>
@@ -314,13 +314,13 @@
     <t>20号胶</t>
   </si>
   <si>
-    <t>NR2602</t>
+    <t>NR2603</t>
   </si>
   <si>
     <t>双胶纸</t>
   </si>
   <si>
-    <t>OP2602</t>
+    <t>OP2603</t>
   </si>
   <si>
     <t>原油</t>
@@ -329,12 +329,6 @@
     <t>SC2602</t>
   </si>
   <si>
-    <t>线材</t>
-  </si>
-  <si>
-    <t>WR2601</t>
-  </si>
-  <si>
     <t>豆一</t>
   </si>
   <si>
@@ -389,18 +383,6 @@
     <t>Y2601</t>
   </si>
   <si>
-    <t>梗稻</t>
-  </si>
-  <si>
-    <t>JR2601</t>
-  </si>
-  <si>
-    <t>晚上稻</t>
-  </si>
-  <si>
-    <t>LR2601</t>
-  </si>
-  <si>
     <t>采油</t>
   </si>
   <si>
@@ -419,12 +401,6 @@
     <t>PL2603</t>
   </si>
   <si>
-    <t>普麦</t>
-  </si>
-  <si>
-    <t>PM2601</t>
-  </si>
-  <si>
     <t>瓶片</t>
   </si>
   <si>
@@ -437,12 +413,6 @@
     <t>PX2603</t>
   </si>
   <si>
-    <t>早上稻</t>
-  </si>
-  <si>
-    <t>RI2601</t>
-  </si>
-  <si>
     <t>菜粕</t>
   </si>
   <si>
@@ -465,12 +435,6 @@
   </si>
   <si>
     <t>TA2605</t>
-  </si>
-  <si>
-    <t>强麦</t>
-  </si>
-  <si>
-    <t>WH2601</t>
   </si>
   <si>
     <t>钯金</t>
@@ -1662,10 +1626,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2243,54 +2207,6 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" t="s">
-        <v>153</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21105" windowHeight="9990"/>
+    <workbookView windowWidth="21030" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -284,13 +284,13 @@
     <t>欧线集运</t>
   </si>
   <si>
-    <t>EC2602</t>
+    <t>EC2604</t>
   </si>
   <si>
     <t>户锌</t>
   </si>
   <si>
-    <t>ZN2602</t>
+    <t>ZN2603</t>
   </si>
   <si>
     <t>白银</t>
@@ -1628,8 +1628,8 @@
   <sheetPr/>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21030" windowHeight="11460"/>
+    <workbookView windowWidth="12960" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     <t>合成橡胶</t>
   </si>
   <si>
-    <t>BR2602</t>
+    <t>BR2603</t>
   </si>
   <si>
     <t>沪铅</t>
@@ -1628,8 +1628,8 @@
   <sheetPr/>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12960" windowHeight="4560"/>
+    <workbookView windowWidth="26430" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <t>苯乙烯</t>
   </si>
   <si>
-    <t>EB2602</t>
+    <t>EB2603</t>
   </si>
   <si>
     <t>铝合金</t>
@@ -1629,7 +1629,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26430" windowHeight="10020"/>
+    <workbookView windowWidth="21630" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -167,12 +167,6 @@
     <t>PS2605</t>
   </si>
   <si>
-    <t>粳米</t>
-  </si>
-  <si>
-    <t>RR2602</t>
-  </si>
-  <si>
     <t>纯苯</t>
   </si>
   <si>
@@ -311,36 +305,12 @@
     <t>NI2602</t>
   </si>
   <si>
-    <t>20号胶</t>
-  </si>
-  <si>
-    <t>NR2603</t>
-  </si>
-  <si>
-    <t>双胶纸</t>
-  </si>
-  <si>
-    <t>OP2603</t>
-  </si>
-  <si>
     <t>原油</t>
   </si>
   <si>
     <t>SC2602</t>
   </si>
   <si>
-    <t>豆一</t>
-  </si>
-  <si>
-    <t>A2605</t>
-  </si>
-  <si>
-    <t>豆二</t>
-  </si>
-  <si>
-    <t>B2605</t>
-  </si>
-  <si>
     <t>胶合板</t>
   </si>
   <si>
@@ -353,12 +323,6 @@
     <t>FB2603</t>
   </si>
   <si>
-    <t>豆粕</t>
-  </si>
-  <si>
-    <t>M2605</t>
-  </si>
-  <si>
     <t>棕榈油</t>
   </si>
   <si>
@@ -371,30 +335,6 @@
     <t>PP2605</t>
   </si>
   <si>
-    <t>PVC</t>
-  </si>
-  <si>
-    <t>V2605</t>
-  </si>
-  <si>
-    <t>豆油</t>
-  </si>
-  <si>
-    <t>Y2601</t>
-  </si>
-  <si>
-    <t>采油</t>
-  </si>
-  <si>
-    <t>OI2605</t>
-  </si>
-  <si>
-    <t>花生</t>
-  </si>
-  <si>
-    <t>PK2603</t>
-  </si>
-  <si>
     <t>丙稀</t>
   </si>
   <si>
@@ -452,7 +392,7 @@
     <t>黄金</t>
   </si>
   <si>
-    <t>AU2602</t>
+    <t>AU2604</t>
   </si>
 </sst>
 </file>
@@ -1626,10 +1566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2127,86 +2067,6 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" t="s">
-        <v>141</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21630" windowHeight="10395"/>
+    <workbookView windowWidth="27000" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -116,7 +116,7 @@
     <t>铜</t>
   </si>
   <si>
-    <t>CU2602</t>
+    <t>CU2603</t>
   </si>
   <si>
     <t>橡胶</t>
@@ -302,19 +302,13 @@
     <t>沪镍</t>
   </si>
   <si>
-    <t>NI2602</t>
+    <t>NI2603</t>
   </si>
   <si>
     <t>原油</t>
   </si>
   <si>
-    <t>SC2602</t>
-  </si>
-  <si>
-    <t>胶合板</t>
-  </si>
-  <si>
-    <t>BB2603</t>
+    <t>SC2603</t>
   </si>
   <si>
     <t>纤维板</t>
@@ -344,37 +338,13 @@
     <t>瓶片</t>
   </si>
   <si>
-    <t>PR2603</t>
+    <t>PR2605</t>
   </si>
   <si>
     <t>对二甲苯</t>
   </si>
   <si>
-    <t>PX2603</t>
-  </si>
-  <si>
-    <t>菜粕</t>
-  </si>
-  <si>
-    <t>RM2605</t>
-  </si>
-  <si>
-    <t>菜籽</t>
-  </si>
-  <si>
-    <t>RS2607</t>
-  </si>
-  <si>
-    <t>硅铁</t>
-  </si>
-  <si>
-    <t>SF2603</t>
-  </si>
-  <si>
-    <t>PAT</t>
-  </si>
-  <si>
-    <t>TA2605</t>
+    <t>PX2605</t>
   </si>
   <si>
     <t>钯金</t>
@@ -1566,10 +1536,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2027,46 +1997,6 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" t="s">
-        <v>121</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27000" windowHeight="4560"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -104,13 +104,13 @@
     <t>烧碱</t>
   </si>
   <si>
-    <t>SH2603</t>
+    <t>SH2605</t>
   </si>
   <si>
     <t>玉米</t>
   </si>
   <si>
-    <t>C2603</t>
+    <t>C2605</t>
   </si>
   <si>
     <t>铜</t>
@@ -140,7 +140,7 @@
     <t>铝</t>
   </si>
   <si>
-    <t>AL2603</t>
+    <t>AL2604</t>
   </si>
   <si>
     <t>棉纱</t>
@@ -194,13 +194,13 @@
     <t>燃油</t>
   </si>
   <si>
-    <t>FU2603</t>
+    <t>FU2605</t>
   </si>
   <si>
     <t>不锈钢</t>
   </si>
   <si>
-    <t>SS2603</t>
+    <t>SS2604</t>
   </si>
   <si>
     <t>短纤</t>
@@ -242,25 +242,25 @@
     <t>锡</t>
   </si>
   <si>
-    <t>SN2602</t>
+    <t>SN2603</t>
   </si>
   <si>
     <t>苯乙烯</t>
   </si>
   <si>
-    <t>EB2603</t>
+    <t>EB2604</t>
   </si>
   <si>
     <t>铝合金</t>
   </si>
   <si>
-    <t>AD2603</t>
+    <t>AD2604</t>
   </si>
   <si>
     <t>低硫燃油</t>
   </si>
   <si>
-    <t>LU2603</t>
+    <t>LU2604</t>
   </si>
   <si>
     <t>尿素</t>
@@ -284,7 +284,7 @@
     <t>户锌</t>
   </si>
   <si>
-    <t>ZN2603</t>
+    <t>ZN2604</t>
   </si>
   <si>
     <t>白银</t>
@@ -293,12 +293,6 @@
     <t>AG2604</t>
   </si>
   <si>
-    <t>热卷</t>
-  </si>
-  <si>
-    <t>HC2605</t>
-  </si>
-  <si>
     <t>沪镍</t>
   </si>
   <si>
@@ -308,7 +302,7 @@
     <t>原油</t>
   </si>
   <si>
-    <t>SC2603</t>
+    <t>SC2604</t>
   </si>
   <si>
     <t>纤维板</t>
@@ -1536,10 +1530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1989,14 +1983,6 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" t="s">
-        <v>111</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/symbols_config.xlsx
+++ b/symbols_config.xlsx
@@ -176,7 +176,7 @@
     <t>合成橡胶</t>
   </si>
   <si>
-    <t>BR2603</t>
+    <t>BR2604</t>
   </si>
   <si>
     <t>沪铅</t>
@@ -242,7 +242,7 @@
     <t>锡</t>
   </si>
   <si>
-    <t>SN2603</t>
+    <t>SN2604</t>
   </si>
   <si>
     <t>苯乙烯</t>
@@ -326,7 +326,7 @@
     <t>丙稀</t>
   </si>
   <si>
-    <t>PL2603</t>
+    <t>PL2605</t>
   </si>
   <si>
     <t>瓶片</t>
@@ -1532,8 +1532,8 @@
   <sheetPr/>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
